--- a/Map/f1_drivers_2015_2021.xlsx
+++ b/Map/f1_drivers_2015_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/708f81e4fd72be00/Nova IMS/1. Semestre 1/Programming for Data Science/4. Group Work/PDS/Map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{371C21FD-F2BA-49BF-AB58-EE1942FACE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BE73998-D2DD-4BD8-A987-AEE1950B9EC3}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{371C21FD-F2BA-49BF-AB58-EE1942FACE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4AA6A89-9DF7-4715-BA78-466C3FE5D29B}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="f1_drivers_2015_2021" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="272">
   <si>
     <t>DRIVER_ID</t>
   </si>
@@ -397,15 +397,6 @@
     <t>GAS</t>
   </si>
   <si>
-    <t>Brendon Hartley</t>
-  </si>
-  <si>
-    <t>brendon_hartley</t>
-  </si>
-  <si>
-    <t>New Zealander</t>
-  </si>
-  <si>
     <t>Charles Leclerc</t>
   </si>
   <si>
@@ -568,9 +559,6 @@
     <t>Scuderia Ferrari</t>
   </si>
   <si>
-    <t>Scuderia Toro Rosso (currently Scuderia Alpha Tauri)</t>
-  </si>
-  <si>
     <t>Lotus F1 Team (currently BWT Alpine F1 Team)</t>
   </si>
   <si>
@@ -770,12 +758,6 @@
   </si>
   <si>
     <t>https://www.formula1.com/content/fom-website/en/drivers/pierre-gasly/_jcr_content/image.img.2048.medium.jpg/1646819179303.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Brendon_Hartley</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?q=brendon+hartley&amp;sxsrf=ALiCzsYyws4_5GfsSvXhr1zPHxQCSrI2rw:1652740269307&amp;source=lnms&amp;tbm=isch&amp;sa=X&amp;ved=2ahUKEwjkraGlieX3AhUIwYUKHTFQBmIQ_AUoAXoECAMQAw&amp;biw=1536&amp;bih=754&amp;dpr=1.25#imgrc=ExIelpkDt8IiRM</t>
   </si>
   <si>
     <t>https://www.formula1.com/en/drivers/charles-leclerc.html</t>
@@ -1234,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,13 +1247,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1294,13 +1276,13 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1323,13 +1305,13 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1352,13 +1334,13 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1381,13 +1363,13 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1410,13 +1392,13 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1439,13 +1421,13 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1468,13 +1450,13 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1497,13 +1479,13 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1526,13 +1508,13 @@
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1555,13 +1537,13 @@
         <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1584,13 +1566,13 @@
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1613,13 +1595,13 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H13" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1642,13 +1624,13 @@
         <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1671,13 +1653,13 @@
         <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H15" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1700,13 +1682,13 @@
         <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1729,13 +1711,13 @@
         <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I17" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1758,13 +1740,13 @@
         <v>69</v>
       </c>
       <c r="G18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I18" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1787,13 +1769,13 @@
         <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1816,13 +1798,13 @@
         <v>77</v>
       </c>
       <c r="G20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1845,13 +1827,13 @@
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H21" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1874,13 +1856,13 @@
         <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H22" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1903,13 +1885,13 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H23" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I23" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1932,13 +1914,13 @@
         <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H24" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I24" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1961,13 +1943,13 @@
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H25" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I25" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1990,13 +1972,13 @@
         <v>96</v>
       </c>
       <c r="G26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H26" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I26" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2019,13 +2001,13 @@
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H27" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I27" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2048,13 +2030,13 @@
         <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H28" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2077,13 +2059,13 @@
         <v>106</v>
       </c>
       <c r="G29" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H29" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I29" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2106,13 +2088,13 @@
         <v>110</v>
       </c>
       <c r="G30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I30" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2135,13 +2117,13 @@
         <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H31" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I31" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2164,13 +2146,13 @@
         <v>117</v>
       </c>
       <c r="G32" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H32" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2193,13 +2175,13 @@
         <v>121</v>
       </c>
       <c r="G33" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H33" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I33" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2222,18 +2204,18 @@
         <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H34" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I34" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B35" t="s">
         <v>125</v>
@@ -2242,56 +2224,56 @@
         <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="E35" s="2">
-        <v>32822</v>
+        <v>35719</v>
       </c>
       <c r="F35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G35" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H35" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E36" s="2">
-        <v>35719</v>
+        <v>34938</v>
       </c>
       <c r="F36" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="G36" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H36" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I36" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B37" t="s">
         <v>132</v>
@@ -2303,24 +2285,24 @@
         <v>134</v>
       </c>
       <c r="E37" s="2">
-        <v>34938</v>
+        <v>36477</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H37" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I37" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B38" t="s">
         <v>135</v>
@@ -2332,24 +2314,24 @@
         <v>137</v>
       </c>
       <c r="E38" s="2">
-        <v>36477</v>
+        <v>35841</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H38" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I38" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B39" t="s">
         <v>138</v>
@@ -2361,53 +2343,53 @@
         <v>140</v>
       </c>
       <c r="E39" s="2">
-        <v>35841</v>
+        <v>35147</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="G39" t="s">
         <v>168</v>
       </c>
       <c r="H39" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I39" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E40" s="2">
-        <v>35147</v>
+        <v>34879</v>
       </c>
       <c r="F40" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="G40" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H40" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I40" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B41" t="s">
         <v>145</v>
@@ -2419,24 +2401,24 @@
         <v>147</v>
       </c>
       <c r="E41" s="2">
-        <v>34879</v>
+        <v>35241</v>
       </c>
       <c r="F41" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
         <v>171</v>
       </c>
       <c r="H41" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I41" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B42" t="s">
         <v>148</v>
@@ -2448,24 +2430,24 @@
         <v>150</v>
       </c>
       <c r="E42" s="2">
-        <v>35241</v>
+        <v>34965</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H42" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I42" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B43" t="s">
         <v>151</v>
@@ -2477,24 +2459,24 @@
         <v>153</v>
       </c>
       <c r="E43" s="2">
-        <v>34965</v>
+        <v>36657</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H43" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I43" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B44" t="s">
         <v>154</v>
@@ -2506,24 +2488,24 @@
         <v>156</v>
       </c>
       <c r="E44" s="2">
-        <v>36657</v>
+        <v>36221</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="G44" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H44" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I44" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B45" t="s">
         <v>157</v>
@@ -2535,24 +2517,24 @@
         <v>159</v>
       </c>
       <c r="E45" s="2">
-        <v>36221</v>
+        <v>36241</v>
       </c>
       <c r="F45" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H45" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I45" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B46" t="s">
         <v>160</v>
@@ -2564,48 +2546,19 @@
         <v>162</v>
       </c>
       <c r="E46" s="2">
-        <v>36241</v>
+        <v>36310</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G46" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H46" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I46" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>855</v>
-      </c>
-      <c r="B47" t="s">
-        <v>163</v>
-      </c>
-      <c r="C47" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" s="2">
-        <v>36310</v>
-      </c>
-      <c r="F47" t="s">
-        <v>166</v>
-      </c>
-      <c r="G47" t="s">
-        <v>170</v>
-      </c>
-      <c r="H47" t="s">
-        <v>274</v>
-      </c>
-      <c r="I47" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
